--- a/example/exampledata.xlsx
+++ b/example/exampledata.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="instructions" sheetId="1" state="visible" r:id="rId2"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="97">
   <si>
     <t xml:space="preserve">Instructions</t>
   </si>
@@ -192,6 +192,9 @@
     <t xml:space="preserve">chair</t>
   </si>
   <si>
+    <t xml:space="preserve">items</t>
+  </si>
+  <si>
     <t xml:space="preserve">Designing for User Engagement</t>
   </si>
   <si>
@@ -256,6 +259,9 @@
   </si>
   <si>
     <t xml:space="preserve">Grand Ballroom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PLENARY</t>
   </si>
   <si>
     <t xml:space="preserve">Paper Session: Surprise and Startle</t>
@@ -329,6 +335,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -357,6 +364,7 @@
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -445,11 +453,11 @@
   </sheetPr>
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A6" activeCellId="1" sqref="D2 A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="125.88"/>
   </cols>
@@ -483,10 +491,10 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D31" activeCellId="0" sqref="D31"/>
+      <selection pane="topLeft" activeCell="D31" activeCellId="1" sqref="D2 D31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.04"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.99"/>
@@ -804,15 +812,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.35"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="45.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.94"/>
   </cols>
@@ -836,25 +844,28 @@
       <c r="F1" s="0" t="s">
         <v>53</v>
       </c>
+      <c r="G1" s="0" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -862,19 +873,19 @@
         <v>9</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -882,19 +893,19 @@
         <v>12</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -902,16 +913,16 @@
         <v>15</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F5" s="0" t="s">
         <v>30</v>
@@ -933,36 +944,39 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G9" activeCellId="0" sqref="G9"/>
+      <selection pane="topLeft" activeCell="F4" activeCellId="1" sqref="D2 F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="61.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="61.84"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="18.2"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D1" s="0" t="s">
         <v>5</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F1" s="0" t="s">
         <v>51</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -976,10 +990,13 @@
         <v>0.4375</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -993,13 +1010,13 @@
         <v>0.479166666666667</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1013,13 +1030,13 @@
         <v>0.520833333333333</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1033,13 +1050,13 @@
         <v>0.479166666666667</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1053,13 +1070,16 @@
         <v>0.604166666666667</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1101,12 +1121,12 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+      <selection pane="topLeft" activeCell="C3" activeCellId="1" sqref="D2 C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="27.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="27.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="25.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="26.95"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="20.14"/>
@@ -1116,42 +1136,42 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="4" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>

--- a/example/exampledata.xlsx
+++ b/example/exampledata.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="instructions" sheetId="1" state="visible" r:id="rId2"/>
@@ -24,16 +24,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="97">
   <si>
     <t xml:space="preserve">Instructions</t>
   </si>
   <si>
     <t xml:space="preserve">I wrote a program to pick and merge the paper/poster data, time schedule, session organisation from a file with four spreadsheets. 
-- items: This one lists all submitted papers, posters, and panel contributions. The column 'session' indicates where an item will be assigned / grouped.
+- items: This one lists all submitted papers, posters, and panel contributions. The column 'session' indicates where an item will be assigned / grouped. If session does not exist (e.g., ‘REJECTED’), a warning is issued and the item is not included. It is possible to re-use an item for multiple sessions, by giving the session ID’s in a comma separated list.
 - sessions: This just holds the grouping, session titles, chair, etc. The column 'session' has a unique ID for each session, and this ID is used in the items table to link items to sessions. The column 'event' links to the events table that defines schedule/rooms, and defines where in the program the session ends up. It is easy to swap two event ID's around here, to swap two session slots.
-- events: This is essentially the program scheduling. I took Esa's data. Currently all parallel sessions (3 parallel) are fully planned. Don't know how many rooms we have. 
-- authors: This sheet is not strictly needed, authors are extracted from the author_list column in the items, but it can be used to add bios or the like.</t>
+- events: This is essentially the program scheduling. Each event can be assigned a time, a room and optionally a session (a break has no session for example). When multiple events have the same start time, these are seen as parallel.
+- authors: This sheet is not strictly needed, authors are extracted from the author_list column in the items, but it can be used to add bios or the like.
+The authors in the ‘author_list’ field may be separated by commas or by newlines. Common titles (prefix like prof. or postfix like PhD) are recognized, Initials and names are also recognized. So “E. Sarah Wilson, PhD” will be written as Sarah Wilson in the author list under a paper, and in full in the author index (Wilson, E. Sarah, PhD)</t>
   </si>
   <si>
     <t xml:space="preserve">item</t>
@@ -48,6 +49,9 @@
     <t xml:space="preserve">title</t>
   </si>
   <si>
+    <t xml:space="preserve">abstract</t>
+  </si>
+  <si>
     <t xml:space="preserve">WORKLOAD</t>
   </si>
   <si>
@@ -228,7 +232,7 @@
     <t xml:space="preserve">NLP Advances</t>
   </si>
   <si>
-    <t xml:space="preserve">Thu-KS</t>
+    <t xml:space="preserve">Tue-KS</t>
   </si>
   <si>
     <t xml:space="preserve">Dr. David Lee</t>
@@ -268,9 +272,6 @@
   </si>
   <si>
     <t xml:space="preserve">Meeting Room 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tue-KS</t>
   </si>
   <si>
     <t xml:space="preserve">Panel Discussion: The Future of Human-Machine Interaction</t>
@@ -453,11 +454,11 @@
   </sheetPr>
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A6" activeCellId="1" sqref="D2 A6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="125.88"/>
   </cols>
@@ -467,7 +468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -488,13 +489,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D31" activeCellId="1" sqref="D2 D31"/>
+      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.04"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.99"/>
@@ -515,19 +516,22 @@
       <c r="D1" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="E1" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -535,13 +539,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -549,13 +553,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -563,13 +567,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -577,13 +581,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -591,13 +595,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -605,13 +609,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -619,13 +623,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -633,13 +637,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -647,13 +651,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -661,13 +665,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -675,13 +679,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -689,13 +693,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -703,13 +707,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -717,13 +721,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -731,13 +735,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -745,13 +749,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -759,13 +763,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -773,13 +777,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -787,13 +791,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -814,13 +818,13 @@
   </sheetPr>
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="45.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.94"/>
   </cols>
@@ -833,99 +837,99 @@
         <v>5</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -944,13 +948,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F4" activeCellId="1" sqref="D2 F4"/>
+      <selection pane="topLeft" activeCell="H34" activeCellId="0" sqref="H34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="61.84"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="18.2"/>
@@ -958,25 +962,25 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D1" s="0" t="s">
         <v>5</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -990,13 +994,13 @@
         <v>0.4375</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1010,13 +1014,13 @@
         <v>0.479166666666667</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1036,7 +1040,7 @@
         <v>82</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1053,10 +1057,10 @@
         <v>83</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1073,34 +1077,14 @@
         <v>84</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
+        <v>78</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1121,10 +1105,10 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="1" sqref="D2 C3"/>
+      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="27.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="25.14"/>

--- a/example/exampledata.xlsx
+++ b/example/exampledata.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="instructions" sheetId="1" state="visible" r:id="rId2"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="108">
   <si>
     <t xml:space="preserve">Instructions</t>
   </si>
@@ -52,6 +52,12 @@
     <t xml:space="preserve">abstract</t>
   </si>
   <si>
+    <t xml:space="preserve">email</t>
+  </si>
+  <si>
+    <t xml:space="preserve">corresponding</t>
+  </si>
+  <si>
     <t xml:space="preserve">WORKLOAD</t>
   </si>
   <si>
@@ -61,6 +67,9 @@
     <t xml:space="preserve">Optimizing Human-AI Interaction for High-Load Scenarios</t>
   </si>
   <si>
+    <t xml:space="preserve">sjohn@mail.no</t>
+  </si>
+  <si>
     <t xml:space="preserve">DISPLAYS</t>
   </si>
   <si>
@@ -88,6 +97,9 @@
     <t xml:space="preserve">Designing for Serendipity: Enhancing Human-AI Interaction through Novelty</t>
   </si>
   <si>
+    <t xml:space="preserve">Dr. Alex Chen</t>
+  </si>
+  <si>
     <t xml:space="preserve">Dr. Jamie Wang</t>
   </si>
   <si>
@@ -112,6 +124,9 @@
     <t xml:space="preserve">Leveraging Surprise to Enhance User Engagement in Human-AI Interaction</t>
   </si>
   <si>
+    <t xml:space="preserve">Dr. Michael Nguyen</t>
+  </si>
+  <si>
     <t xml:space="preserve">Samantha Brown</t>
   </si>
   <si>
@@ -154,6 +169,9 @@
     <t xml:space="preserve">Investigating the Impact of Automation on User Satisfaction in Human-AI Interaction</t>
   </si>
   <si>
+    <t xml:space="preserve">Sophia Johnson</t>
+  </si>
+  <si>
     <t xml:space="preserve">Dr. Jennifer Chen</t>
   </si>
   <si>
@@ -184,6 +202,9 @@
     <t xml:space="preserve">The Impact of Surprise on User Trust in Human-AI Interaction</t>
   </si>
   <si>
+    <t xml:space="preserve">Dr. Kevin Lee</t>
+  </si>
+  <si>
     <t xml:space="preserve">shorttitle</t>
   </si>
   <si>
@@ -199,6 +220,9 @@
     <t xml:space="preserve">items</t>
   </si>
   <si>
+    <t xml:space="preserve">chair_email</t>
+  </si>
+  <si>
     <t xml:space="preserve">Designing for User Engagement</t>
   </si>
   <si>
@@ -214,6 +238,9 @@
     <t xml:space="preserve">Dr. John Smith</t>
   </si>
   <si>
+    <t xml:space="preserve">jsmith@purrdue.edu</t>
+  </si>
+  <si>
     <t xml:space="preserve">Emerging Display Technologies</t>
   </si>
   <si>
@@ -226,6 +253,9 @@
     <t xml:space="preserve">Dr. Jane Doe</t>
   </si>
   <si>
+    <t xml:space="preserve">jane.doe@gmail.com</t>
+  </si>
+  <si>
     <t xml:space="preserve">Advances in Natural Language Processing</t>
   </si>
   <si>
@@ -238,6 +268,9 @@
     <t xml:space="preserve">Dr. David Lee</t>
   </si>
   <si>
+    <t xml:space="preserve">thedave@mutt.edu</t>
+  </si>
+  <si>
     <t xml:space="preserve">Human-Machine Interaction for Creative Collaboration</t>
   </si>
   <si>
@@ -247,6 +280,9 @@
     <t xml:space="preserve">Wed-WK</t>
   </si>
   <si>
+    <t xml:space="preserve">ohsarah@poet.heart</t>
+  </si>
+  <si>
     <t xml:space="preserve">day</t>
   </si>
   <si>
@@ -293,9 +329,6 @@
   </si>
   <si>
     <t xml:space="preserve">affiliation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">email</t>
   </si>
   <si>
     <t xml:space="preserve">picture</t>
@@ -331,7 +364,7 @@
     <numFmt numFmtId="165" formatCode="yyyy/mm/dd"/>
     <numFmt numFmtId="166" formatCode="hh:mm:ss"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -354,17 +387,22 @@
       <family val="0"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
+      <sz val="10"/>
       <name val="Arial"/>
-      <family val="0"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="0"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -410,13 +448,21 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -427,11 +473,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -454,11 +496,11 @@
   </sheetPr>
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="125.88"/>
   </cols>
@@ -489,18 +531,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G22" activeCellId="0" sqref="G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.04"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="40.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="81.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="24.45"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -519,19 +562,31 @@
       <c r="E1" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="F1" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -539,13 +594,19 @@
         <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>12</v>
+        <v>15</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -553,13 +614,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -567,13 +634,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>18</v>
+        <v>21</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -581,13 +654,19 @@
         <v>5</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>20</v>
+        <v>24</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -595,13 +674,19 @@
         <v>6</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>22</v>
+        <v>26</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -609,13 +694,19 @@
         <v>7</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>24</v>
+        <v>28</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -623,13 +714,19 @@
         <v>8</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>26</v>
+        <v>30</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -637,13 +734,19 @@
         <v>9</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>28</v>
+        <v>33</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -651,13 +754,19 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>30</v>
+        <v>35</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="0" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -665,13 +774,19 @@
         <v>11</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>32</v>
+        <v>37</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="0" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -679,13 +794,19 @@
         <v>12</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>34</v>
+        <v>39</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="0" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -693,13 +814,19 @@
         <v>13</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>36</v>
+        <v>41</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="0" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -707,13 +834,19 @@
         <v>14</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>38</v>
+        <v>43</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" s="0" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -721,13 +854,19 @@
         <v>15</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>40</v>
+        <v>45</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="0" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -735,13 +874,19 @@
         <v>16</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>42</v>
+        <v>48</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" s="0" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -749,13 +894,19 @@
         <v>17</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>44</v>
+        <v>50</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" s="0" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -763,13 +914,19 @@
         <v>18</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>46</v>
+        <v>52</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19" s="0" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -777,13 +934,19 @@
         <v>19</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>48</v>
+        <v>54</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" s="0" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -791,13 +954,19 @@
         <v>20</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>50</v>
+        <v>56</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" s="0" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -816,17 +985,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
+      <selection pane="topLeft" activeCell="H6" activeCellId="0" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="45.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="19.31"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -837,102 +1007,123 @@
         <v>5</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>55</v>
+        <v>62</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>60</v>
+        <v>68</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>64</v>
+        <v>73</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="D4" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="E4" s="0" t="s">
         <v>67</v>
       </c>
-      <c r="E4" s="0" t="s">
-        <v>59</v>
-      </c>
       <c r="F4" s="0" t="s">
-        <v>68</v>
+        <v>78</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>31</v>
+        <v>36</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="H2" r:id="rId1" display="jsmith@purrdue.edu"/>
+    <hyperlink ref="H3" r:id="rId2" display="jane.doe@gmail.com"/>
+    <hyperlink ref="H4" r:id="rId3" display="thedave@mutt.edu"/>
+    <hyperlink ref="H5" r:id="rId4" display="ohsarah@poet.heart"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -954,7 +1145,7 @@
       <selection pane="topLeft" activeCell="H34" activeCellId="0" sqref="H34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="61.84"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="18.2"/>
@@ -962,128 +1153,128 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="D1" s="0" t="s">
         <v>5</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="4" t="n">
         <v>45000</v>
       </c>
-      <c r="B2" s="3" t="n">
+      <c r="B2" s="5" t="n">
         <v>0.375</v>
       </c>
-      <c r="C2" s="3" t="n">
+      <c r="C2" s="5" t="n">
         <v>0.4375</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="E2" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="4" t="n">
+        <v>45000</v>
+      </c>
+      <c r="B3" s="5" t="n">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="C3" s="5" t="n">
+        <v>0.479166666666667</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="F3" s="0" t="s">
         <v>77</v>
       </c>
-      <c r="G2" s="0" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="n">
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="4" t="n">
         <v>45000</v>
       </c>
-      <c r="B3" s="3" t="n">
+      <c r="B4" s="5" t="n">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="C4" s="5" t="n">
+        <v>0.520833333333333</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="4" t="n">
+        <v>45001</v>
+      </c>
+      <c r="B5" s="5" t="n">
         <v>0.416666666666667</v>
       </c>
-      <c r="C3" s="3" t="n">
+      <c r="C5" s="5" t="n">
         <v>0.479166666666667</v>
       </c>
-      <c r="D3" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="n">
-        <v>45000</v>
-      </c>
-      <c r="B4" s="3" t="n">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="C4" s="3" t="n">
-        <v>0.520833333333333</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="E4" s="0" t="s">
+      <c r="D5" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="4" t="n">
+        <v>45001</v>
+      </c>
+      <c r="B6" s="5" t="n">
+        <v>0.541666666666667</v>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>0.604166666666667</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="F6" s="0" t="s">
         <v>82</v>
       </c>
-      <c r="F4" s="0" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="n">
-        <v>45001</v>
-      </c>
-      <c r="B5" s="3" t="n">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="C5" s="3" t="n">
-        <v>0.479166666666667</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="n">
-        <v>45001</v>
-      </c>
-      <c r="B6" s="3" t="n">
-        <v>0.541666666666667</v>
-      </c>
-      <c r="C6" s="3" t="n">
-        <v>0.604166666666667</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>71</v>
-      </c>
       <c r="G6" s="0" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -1108,7 +1299,7 @@
       <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="27.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="25.14"/>
@@ -1119,43 +1310,43 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>90</v>
+      <c r="A1" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>94</v>
+        <v>104</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>105</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
